--- a/Hostel Allocation Grouping (Responses).xlsx
+++ b/Hostel Allocation Grouping (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bikra\Desktop\Programming projects\Python\Google Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D5DA48-FF8C-4AA8-9066-0C6437881331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A66BC4-46A8-4A0F-BC6B-0B2BEDF46797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -638,12 +638,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{177318D8-E89B-4B7C-9D0F-52B70A6451BB}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{A6D76BD6-6AF0-430E-B32D-0D3BBDAF88D8}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{311F4EEB-BBCF-4F75-8098-1485191BBEE9}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{F9AAAE9C-F6AA-4E4D-B35D-047BF7383622}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{D09B4EB2-24BB-44C8-9D46-DE1CCA595FBE}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{4D0A1B75-9E31-4F28-9ACB-FC17CB4EE31A}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4D0A1B75-9E31-4F28-9ACB-FC17CB4EE31A}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{D09B4EB2-24BB-44C8-9D46-DE1CCA595FBE}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{F9AAAE9C-F6AA-4E4D-B35D-047BF7383622}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{311F4EEB-BBCF-4F75-8098-1485191BBEE9}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{A6D76BD6-6AF0-430E-B32D-0D3BBDAF88D8}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{177318D8-E89B-4B7C-9D0F-52B70A6451BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hostel Allocation Grouping (Responses).xlsx
+++ b/Hostel Allocation Grouping (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bikra\Desktop\Programming projects\Python\Google Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A66BC4-46A8-4A0F-BC6B-0B2BEDF46797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F76AF-DC46-4874-A9E5-2881BBB7EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="523">
   <si>
     <t>Timestamp</t>
   </si>
@@ -49,85 +49,1546 @@
     <t>Personal Email ID</t>
   </si>
   <si>
-    <t>Bikramjeet Dasgupta</t>
+    <t>vibhushitbhatt725@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vibhushit bhatt </t>
+  </si>
+  <si>
+    <t>Cse ( Cloud Computing and Automation)</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>6 Bed AC</t>
+  </si>
+  <si>
+    <t>amanraj2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>4 Bed Non AC</t>
+  </si>
+  <si>
+    <t>premshirvi17@gmail.com</t>
+  </si>
+  <si>
+    <t>Prem M. Shirvi</t>
+  </si>
+  <si>
+    <t>CSE AI&amp;ML</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>sudinjana22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUDIN JANA </t>
+  </si>
+  <si>
+    <t>CSE core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panskura, Purba Medinipur </t>
+  </si>
+  <si>
+    <t>A402</t>
+  </si>
+  <si>
+    <t>mayanksinghrawat2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayank Singh Rawat </t>
+  </si>
+  <si>
+    <t>CSE AIML</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Uk Dehradun</t>
+  </si>
+  <si>
+    <t>4 Bed AC</t>
+  </si>
+  <si>
+    <t>sahilkotgirwar@gmail.com</t>
+  </si>
+  <si>
+    <t>Sahil Kotgirwar</t>
+  </si>
+  <si>
+    <t>Cse core</t>
+  </si>
+  <si>
+    <t>Bhopal</t>
+  </si>
+  <si>
+    <t>3 Bed Non AC</t>
+  </si>
+  <si>
+    <t>A504</t>
+  </si>
+  <si>
+    <t>sparshjain1901@gmail.com</t>
+  </si>
+  <si>
+    <t>Sparsh</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>2 Bed Non AC</t>
+  </si>
+  <si>
+    <t>B209</t>
+  </si>
+  <si>
+    <t>utkarshkumar2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utkarsh Kumar </t>
+  </si>
+  <si>
+    <t>CSE AI and ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begusarai Bihar </t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>lakshaykumar3000@gmail.com</t>
+  </si>
+  <si>
+    <t>Lakshay</t>
+  </si>
+  <si>
+    <t>CSE-Core</t>
+  </si>
+  <si>
+    <t>Amritsar</t>
+  </si>
+  <si>
+    <t>A301</t>
+  </si>
+  <si>
+    <t>navanildas2702@gmail.com</t>
+  </si>
+  <si>
+    <t>Navanil Das</t>
+  </si>
+  <si>
+    <t>CSE Health Informatics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolkata </t>
+  </si>
+  <si>
+    <t>A102</t>
+  </si>
+  <si>
+    <t>harshtomar1588@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harsh Tomar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse core </t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>mild15585@gmail.com</t>
+  </si>
+  <si>
+    <t>Orjit Nandi</t>
+  </si>
+  <si>
+    <t>Btech In CSE</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>singhatharv1919@gmail.com</t>
+  </si>
+  <si>
+    <t>Atharv Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE core </t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>devarshshah2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devarsh Shah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadodara </t>
+  </si>
+  <si>
+    <t>A108</t>
+  </si>
+  <si>
+    <t>rajaditya81795@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya Raj</t>
+  </si>
+  <si>
+    <t>CSE with AI and ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagpur, Maharashtra </t>
+  </si>
+  <si>
+    <t>A606</t>
+  </si>
+  <si>
+    <t>mahajansayam3@gmail.com</t>
+  </si>
+  <si>
+    <t>Sayam Mahajan</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Jammu</t>
+  </si>
+  <si>
+    <t>yasharora9084@gmail.com</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse Core </t>
+  </si>
+  <si>
+    <t>Rewari, Haryana</t>
+  </si>
+  <si>
+    <t>A209</t>
+  </si>
+  <si>
+    <t>naveenkrishna2774@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naveen Krishna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse in AI ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangalore </t>
+  </si>
+  <si>
+    <t>B603</t>
+  </si>
+  <si>
+    <t>vtp523@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinayakprajapati2022@vitbhopal.ac.in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE CORE </t>
+  </si>
+  <si>
+    <t>Raver</t>
+  </si>
+  <si>
+    <t>rahul.65658989@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul Kumar</t>
+  </si>
+  <si>
+    <t>Dhanbad</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>kushagrabansal2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kushagra Bansal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">E- commerce </t>
+  </si>
+  <si>
+    <t>Mathura, Uttar pradeeh</t>
+  </si>
+  <si>
+    <t>A213</t>
+  </si>
+  <si>
+    <t>vsd4687@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vedant Deshmukh </t>
+  </si>
+  <si>
+    <t>Integrated M.Tech AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurangabad Maharashtra </t>
+  </si>
+  <si>
+    <t>adityakolhe11126@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Kolhe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE Health Informatics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurangabad </t>
+  </si>
+  <si>
+    <t>hardikunova19@gmail.com</t>
+  </si>
+  <si>
+    <t>Hardik Rawat</t>
+  </si>
+  <si>
+    <t>Cse ai ml</t>
+  </si>
+  <si>
+    <t>A311</t>
+  </si>
+  <si>
+    <t>ashutoshsatpathy2004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashutosh Satpathy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE in specialization with Cyber Security and Digital Forensics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odisha </t>
+  </si>
+  <si>
+    <t>yawagh30@gmail.com</t>
+  </si>
+  <si>
+    <t>Yash Wagh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Btech computer science and engineering specialization in cloud computing and automation </t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>himanshu34484@gmail.com</t>
+  </si>
+  <si>
+    <t>Himanshu Chauhan</t>
+  </si>
+  <si>
+    <t>Int. M.tech in AI</t>
+  </si>
+  <si>
+    <t>Ajmer, Rajasthan</t>
+  </si>
+  <si>
+    <t>Priyanshupro123@gmail.com</t>
+  </si>
+  <si>
+    <t>priyanshu joshi</t>
+  </si>
+  <si>
+    <t>Cse with spec in cyber security and digital forensics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttarakhand </t>
+  </si>
+  <si>
+    <t>B401</t>
+  </si>
+  <si>
+    <t>priyanshugupta771@gmail.com</t>
+  </si>
+  <si>
+    <t>Priyanshu Gupta</t>
+  </si>
+  <si>
+    <t>Ai ml</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>adikakade154@gmail.com</t>
+  </si>
+  <si>
+    <t>ADITYA KAKADE</t>
+  </si>
+  <si>
+    <t>IntMtech AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nashik, Maharashtra </t>
+  </si>
+  <si>
+    <t>karmanya82@gmail.com</t>
+  </si>
+  <si>
+    <t>kb</t>
+  </si>
+  <si>
+    <t>Aiml</t>
+  </si>
+  <si>
+    <t>B705</t>
+  </si>
+  <si>
+    <t>quilospacer@gmail.com</t>
+  </si>
+  <si>
+    <t>Spacer(Pre Placed)</t>
+  </si>
+  <si>
+    <t>anandmukherjee2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Anand Mukherjee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE AIML </t>
+  </si>
+  <si>
+    <t>Nagpur City</t>
+  </si>
+  <si>
+    <t>abhinavj013@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhinav Jain</t>
+  </si>
+  <si>
+    <t>Jabalpur</t>
+  </si>
+  <si>
+    <t>A613</t>
+  </si>
+  <si>
+    <t>soodvedansh@gmail.com</t>
+  </si>
+  <si>
+    <t>Vedansh Sood</t>
+  </si>
+  <si>
+    <t>CSE (AIML)</t>
+  </si>
+  <si>
+    <t>Faridabad , Haryana</t>
+  </si>
+  <si>
+    <t>B202</t>
+  </si>
+  <si>
+    <t>rajeeva1505@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajeeva Lochana </t>
+  </si>
+  <si>
+    <t>CSE AI &amp; ML</t>
+  </si>
+  <si>
+    <t>jatinsen0503@gmail.com</t>
+  </si>
+  <si>
+    <t>Jatin Sen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucknow </t>
+  </si>
+  <si>
+    <t>B606</t>
+  </si>
+  <si>
+    <t>gvarjun502@gmail.com</t>
+  </si>
+  <si>
+    <t>Arjun.G.V</t>
+  </si>
+  <si>
+    <t>CSE(ai and ml)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyderabad </t>
+  </si>
+  <si>
+    <t>namitrustagi11@gmail.com</t>
+  </si>
+  <si>
+    <t>Namit Rustagi</t>
+  </si>
+  <si>
+    <t>Delhi NCR</t>
+  </si>
+  <si>
+    <t>md.ansari0605@gmail.com</t>
+  </si>
+  <si>
+    <t>Farhan Ansari</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>ayan1695khan@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammad Ayan Khan</t>
+  </si>
+  <si>
+    <t>Btech cse with spec. In AI and ML</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>A710</t>
+  </si>
+  <si>
+    <t>sarbabanerjee312@gmail.com</t>
+  </si>
+  <si>
+    <t>Sarba Banerjee</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>piyush17112004@gmail.com</t>
+  </si>
+  <si>
+    <t>Piyush Kumar</t>
+  </si>
+  <si>
+    <t>Aerospace</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>amritsinghg.007@gmail.com</t>
+  </si>
+  <si>
+    <t>Amritraj Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioengineering </t>
+  </si>
+  <si>
+    <t>Gondia</t>
+  </si>
+  <si>
+    <t>A512</t>
+  </si>
+  <si>
+    <t>bikramjeetdg@gmail.com</t>
+  </si>
+  <si>
+    <t>BIKRAMJEET DASGUPTA</t>
   </si>
   <si>
     <t>CSE AI ML</t>
   </si>
   <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>4 Bed AC</t>
-  </si>
-  <si>
-    <t>bikramjeetdg@gmail.com</t>
-  </si>
-  <si>
-    <t>ankit@gmail.com</t>
-  </si>
-  <si>
-    <t>Ankit Roy</t>
-  </si>
-  <si>
-    <t>CSE</t>
-  </si>
-  <si>
-    <t>Vizag</t>
-  </si>
-  <si>
-    <t>Anurag</t>
-  </si>
-  <si>
-    <t>BIKRAMJEET DASGUPTA</t>
-  </si>
-  <si>
-    <t>SDD</t>
-  </si>
-  <si>
-    <t>Sourav</t>
-  </si>
-  <si>
-    <t>ECE</t>
-  </si>
-  <si>
-    <t>Hello@hin.com</t>
-  </si>
-  <si>
-    <t>Arnab</t>
-  </si>
-  <si>
-    <t>HUH</t>
-  </si>
-  <si>
-    <t>4 Bed Non AC</t>
-  </si>
-  <si>
-    <t>sq</t>
-  </si>
-  <si>
-    <t>qsqs</t>
-  </si>
-  <si>
-    <t>2 Bed Non AC</t>
-  </si>
-  <si>
-    <t>ankwdwit@gmail.com</t>
-  </si>
-  <si>
-    <t>Dwwdwdasddc@gmail.com</t>
-  </si>
-  <si>
-    <t>Klkatra</t>
-  </si>
-  <si>
-    <t>bikramjesdetdg@gmail.com</t>
-  </si>
-  <si>
-    <t>bikramjeetdWDg@gmail.com</t>
-  </si>
-  <si>
-    <t>bikramjeWDWDetdg@gmail.com</t>
+    <t>agarwalshailendra4@gmail.com</t>
+  </si>
+  <si>
+    <t>Shishir Agarwal</t>
+  </si>
+  <si>
+    <t>CSE Core</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>sauravth2003@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saurav Thakur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalpaiguri </t>
+  </si>
+  <si>
+    <t>hanish.reddy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>Hanish B Reddy</t>
+  </si>
+  <si>
+    <t>Bioengineering</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>nikhildhanda48@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nikhil </t>
+  </si>
+  <si>
+    <t>Cse aiml</t>
+  </si>
+  <si>
+    <t>Rohtak</t>
+  </si>
+  <si>
+    <t>agnibhachakraborty11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agnibha Chakraborty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE CYBERSECURITY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolkata, west bengal </t>
+  </si>
+  <si>
+    <t>ak2003eftychia@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshit Kumar </t>
+  </si>
+  <si>
+    <t>CSE CORE</t>
+  </si>
+  <si>
+    <t>A608</t>
+  </si>
+  <si>
+    <t>prakhartiwari942@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prakhar tiwari </t>
+  </si>
+  <si>
+    <t>Cse with AIML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauranipur jhanshi </t>
+  </si>
+  <si>
+    <t>Sddhantjaiii@gmail.com</t>
+  </si>
+  <si>
+    <t>Siddhant Jaiswal</t>
+  </si>
+  <si>
+    <t>Cse Ecom</t>
+  </si>
+  <si>
+    <t>BAREILLY</t>
+  </si>
+  <si>
+    <t>G-14</t>
+  </si>
+  <si>
+    <t>ritwikmukherjee2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Ritwik Mukherjee</t>
+  </si>
+  <si>
+    <t>CSE with specialization in Health Informatics</t>
+  </si>
+  <si>
+    <t>15siddharth04@gmail.com</t>
+  </si>
+  <si>
+    <t>Siddharth Shankar</t>
+  </si>
+  <si>
+    <t>Gaming Technology</t>
+  </si>
+  <si>
+    <t>kaustubhagrawal2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaustubh Agrawal </t>
+  </si>
+  <si>
+    <t>Gorakhpur</t>
+  </si>
+  <si>
+    <t>A206</t>
+  </si>
+  <si>
+    <t>senbiprajeet@gmail.com</t>
+  </si>
+  <si>
+    <t>Biprajeet Sen</t>
+  </si>
+  <si>
+    <t>CSE(CS and DF)</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>albert531singh@gmail.com</t>
+  </si>
+  <si>
+    <t>Priyanshu Singh</t>
+  </si>
+  <si>
+    <t>Cse</t>
+  </si>
+  <si>
+    <t>apoorvpatidar.ap24@gmail.com</t>
+  </si>
+  <si>
+    <t>Apoorv Patidar</t>
+  </si>
+  <si>
+    <t>A702</t>
+  </si>
+  <si>
+    <t>dhruvbhalode@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhruv Bhalode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE (AIML) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai </t>
+  </si>
+  <si>
+    <t>sourabhjoshi2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sourabh Joshi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jodhpur </t>
+  </si>
+  <si>
+    <t>A704</t>
+  </si>
+  <si>
+    <t>spatri1237@gmail.com</t>
+  </si>
+  <si>
+    <t>Sparsh Tripathi</t>
+  </si>
+  <si>
+    <t>Prayagraj</t>
+  </si>
+  <si>
+    <t>rounakagrahari0605@gmail.com</t>
+  </si>
+  <si>
+    <t>ROUNAK AGRAHARI</t>
+  </si>
+  <si>
+    <t>Cse (AI &amp; ML)</t>
+  </si>
+  <si>
+    <t>NASHIK</t>
+  </si>
+  <si>
+    <t>A203</t>
+  </si>
+  <si>
+    <t>aadijainadj@gmail.com</t>
+  </si>
+  <si>
+    <t>Aadi jain</t>
+  </si>
+  <si>
+    <t>Gwalior</t>
+  </si>
+  <si>
+    <t>devanshagarwal835@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devansh  agarwal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE WITH AI ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi </t>
+  </si>
+  <si>
+    <t>A611</t>
+  </si>
+  <si>
+    <t>priyanshukumar2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Priyanshu Kumar</t>
+  </si>
+  <si>
+    <t>Jainagar</t>
+  </si>
+  <si>
+    <t>A204</t>
+  </si>
+  <si>
+    <t>ommishra1590@gmail.com</t>
+  </si>
+  <si>
+    <t>Om Mishra</t>
+  </si>
+  <si>
+    <t>Madhubani, Bihar</t>
+  </si>
+  <si>
+    <t>A705</t>
+  </si>
+  <si>
+    <t>aryansrivastava.2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Srivastava </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bihar </t>
+  </si>
+  <si>
+    <t>sanketbhatnagar39@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanket Bhatnagar</t>
+  </si>
+  <si>
+    <t>AIML</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>sarfrajansaridev@gmail.com</t>
+  </si>
+  <si>
+    <t>Sarfaraj Ansari</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>B408</t>
+  </si>
+  <si>
+    <t>keshavshrm3454@gmail.com</t>
+  </si>
+  <si>
+    <t>Keshav Sharma</t>
+  </si>
+  <si>
+    <t>Rohini Delhi</t>
+  </si>
+  <si>
+    <t>adithjose58@gmail.com</t>
+  </si>
+  <si>
+    <t>Adith Jose</t>
+  </si>
+  <si>
+    <t>torawanepiyush@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piyush torawane </t>
+  </si>
+  <si>
+    <t>Cse specialization in ai ml</t>
+  </si>
+  <si>
+    <t>A107</t>
+  </si>
+  <si>
+    <t>pandeyrishabh570@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rishabh kumar </t>
+  </si>
+  <si>
+    <t>pinakesh2021@gmail.com</t>
+  </si>
+  <si>
+    <t>Pinakesh Chattopadhyay</t>
+  </si>
+  <si>
+    <t>Cse Core</t>
+  </si>
+  <si>
+    <t>Kharagpur</t>
+  </si>
+  <si>
+    <t>A302</t>
+  </si>
+  <si>
+    <t>satwikbasu03@gmail.com</t>
+  </si>
+  <si>
+    <t>Satwik Basu</t>
+  </si>
+  <si>
+    <t>Int mtech in cyber security</t>
+  </si>
+  <si>
+    <t>Pune, Maharashtra</t>
+  </si>
+  <si>
+    <t>andyatmsi@gmail.com</t>
+  </si>
+  <si>
+    <t>Ishan Andola</t>
+  </si>
+  <si>
+    <t>B107</t>
+  </si>
+  <si>
+    <t>ritamghosh195@gmail.com</t>
+  </si>
+  <si>
+    <t>RITAM GHOSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYBERSECURITY AND DIGITAL FORENSICS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASANSOL </t>
+  </si>
+  <si>
+    <t>A602</t>
+  </si>
+  <si>
+    <t>kvaibhav.1038@gmail.com</t>
+  </si>
+  <si>
+    <t>Kumar Vaibhav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse Health Informatics </t>
+  </si>
+  <si>
+    <t>B106</t>
+  </si>
+  <si>
+    <t>sakshat1905@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshat bhriguvanshi</t>
+  </si>
+  <si>
+    <t>Varanasi</t>
+  </si>
+  <si>
+    <t>B704</t>
+  </si>
+  <si>
+    <t>suvampal087@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suvam Pal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerospace engineering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guskara </t>
+  </si>
+  <si>
+    <t>A703</t>
+  </si>
+  <si>
+    <t>aarush.taluja1@gmail.com</t>
+  </si>
+  <si>
+    <t>Aarush Taluja</t>
+  </si>
+  <si>
+    <t>Faridabad, Haryana</t>
+  </si>
+  <si>
+    <t>satrajit214@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satrajit Mukherjee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durgapur </t>
+  </si>
+  <si>
+    <t>A313</t>
+  </si>
+  <si>
+    <t>simark8640@gmail.com</t>
+  </si>
+  <si>
+    <t>Simar Kochar</t>
+  </si>
+  <si>
+    <t>CSE IN AI AND ML</t>
+  </si>
+  <si>
+    <t>JABALPUR</t>
+  </si>
+  <si>
+    <t>jainarpit2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Arpit Jain</t>
+  </si>
+  <si>
+    <t>akshatrastogi6704@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshat Rastogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse ai and ml </t>
+  </si>
+  <si>
+    <t>Fatehpur</t>
+  </si>
+  <si>
+    <t>taparup7050@gmail.com</t>
+  </si>
+  <si>
+    <t>Taparup Chakraborty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse </t>
+  </si>
+  <si>
+    <t>Berhampore</t>
+  </si>
+  <si>
+    <t>abhinav2824@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhinav Anand</t>
+  </si>
+  <si>
+    <t>utkarsh15151@gmail.com</t>
+  </si>
+  <si>
+    <t>Utkarsh Patel</t>
+  </si>
+  <si>
+    <t>Cyber wala hu</t>
+  </si>
+  <si>
+    <t>Satna</t>
+  </si>
+  <si>
+    <t>soham.world02@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soham Datta </t>
+  </si>
+  <si>
+    <t>CSE - Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krishnagar, West Bengal </t>
+  </si>
+  <si>
+    <t>B203</t>
+  </si>
+  <si>
+    <t>rawatmanav22@gmail.com</t>
+  </si>
+  <si>
+    <t>Manav Rawat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewari </t>
+  </si>
+  <si>
+    <t>dipsingha65@gmail.com</t>
+  </si>
+  <si>
+    <t>Rohan Singha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse specialisation education technology </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bengal </t>
+  </si>
+  <si>
+    <t>samarthsoni1505@gmail.com</t>
+  </si>
+  <si>
+    <t>Samarth Soni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhopal </t>
+  </si>
+  <si>
+    <t>B702</t>
+  </si>
+  <si>
+    <t>vedsp2244@gmail.com</t>
+  </si>
+  <si>
+    <t>ved pandya</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>gujarat</t>
+  </si>
+  <si>
+    <t>vineetkotari98@gmail.com</t>
+  </si>
+  <si>
+    <t>K.DINKAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse specialisation in cloud computing and automation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KORBA CHHATTISGARH </t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>aviraldwivedi.ad1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIRAL DWIVEDI </t>
+  </si>
+  <si>
+    <t>Bareilly</t>
+  </si>
+  <si>
+    <t>harlinmartin2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>HARLIN  MARTIN</t>
+  </si>
+  <si>
+    <t>CSE (HEALTH INFORMATICS)</t>
+  </si>
+  <si>
+    <t>KERALA</t>
+  </si>
+  <si>
+    <t>sameerkumar2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sameer Kumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karnataka </t>
+  </si>
+  <si>
+    <t>A212</t>
+  </si>
+  <si>
+    <t>hero49045@gmail.com</t>
+  </si>
+  <si>
+    <t>Bidhan Manna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE gaming technology </t>
+  </si>
+  <si>
+    <t>i.shivam6424@gmail.com</t>
+  </si>
+  <si>
+    <t>Shivam kumar</t>
+  </si>
+  <si>
+    <t>CSE (CORE)</t>
+  </si>
+  <si>
+    <t>Munger, Bihar</t>
+  </si>
+  <si>
+    <t>sunnam13579@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunnam </t>
+  </si>
+  <si>
+    <t>Cse spe. Ai ml</t>
+  </si>
+  <si>
+    <t>Sirsa,haryana</t>
+  </si>
+  <si>
+    <t>A214</t>
+  </si>
+  <si>
+    <t>parth.mittal021@gmail.com</t>
+  </si>
+  <si>
+    <t>Parth Mittal</t>
+  </si>
+  <si>
+    <t>Cse AI ML</t>
+  </si>
+  <si>
+    <t>FARIDABAD</t>
+  </si>
+  <si>
+    <t>arinbalyan19@gmail.com</t>
+  </si>
+  <si>
+    <t>Arin</t>
+  </si>
+  <si>
+    <t>Sonepat</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>mayankyadav2022@vitbhopal.com</t>
+  </si>
+  <si>
+    <t>Mayank Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanpur </t>
+  </si>
+  <si>
+    <t>madhukull2701@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhuram </t>
+  </si>
+  <si>
+    <t>CS core</t>
+  </si>
+  <si>
+    <t>Agra</t>
+  </si>
+  <si>
+    <t>A610</t>
+  </si>
+  <si>
+    <t>dhananjayrana24@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhananjay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamunanagar </t>
+  </si>
+  <si>
+    <t>sparth332@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parth Sharma </t>
+  </si>
+  <si>
+    <t>CSE(Cloud computing and automation )</t>
+  </si>
+  <si>
+    <t>umarpersonal786@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammad Umar Ali Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE e-commerce </t>
+  </si>
+  <si>
+    <t>vedantmishra2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Vedant Mishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Tech </t>
+  </si>
+  <si>
+    <t>A410</t>
+  </si>
+  <si>
+    <t>imrr1289@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajeev Ranjan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE with specialization in e commerce technology </t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
+    <t>akshatsingh23072004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshat </t>
+  </si>
+  <si>
+    <t>chaturvedipalash21@gmail.com</t>
+  </si>
+  <si>
+    <t>Palash Chaturvedi</t>
+  </si>
+  <si>
+    <t>CSE with specialization AI &amp; ML</t>
+  </si>
+  <si>
+    <t>Rawatbhata, Rajasthan</t>
+  </si>
+  <si>
+    <t>B207</t>
+  </si>
+  <si>
+    <t>priyanshuchoudhary2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanshu Choudhary </t>
+  </si>
+  <si>
+    <t>Cse with specalization (Ai ml)</t>
+  </si>
+  <si>
+    <t>B/309</t>
+  </si>
+  <si>
+    <t>akshit.v@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshit Verma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE AI-ML </t>
+  </si>
+  <si>
+    <t>A412</t>
+  </si>
+  <si>
+    <t>yashpandey30kp@gmail.com</t>
+  </si>
+  <si>
+    <t>YASH PANDEY</t>
+  </si>
+  <si>
+    <t>KANPUR</t>
+  </si>
+  <si>
+    <t>dineshtyagi567@gmail.com</t>
+  </si>
+  <si>
+    <t>Dinesh Tyagi</t>
+  </si>
+  <si>
+    <t>CSE(Health Informatics)</t>
+  </si>
+  <si>
+    <t>hchj@gmail.com</t>
+  </si>
+  <si>
+    <t>Devansh</t>
+  </si>
+  <si>
+    <t>B109</t>
+  </si>
+  <si>
+    <t>gauravgupta2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaurav Gupta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttar Pradesh </t>
+  </si>
+  <si>
+    <t>Kush.1001@hotmai.com</t>
+  </si>
+  <si>
+    <t>Kush</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>solankivarun03@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varun Solanki </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surat </t>
+  </si>
+  <si>
+    <t>s1o2m3i4l5678@gmail.com</t>
+  </si>
+  <si>
+    <t>somil jain</t>
+  </si>
+  <si>
+    <t>B501</t>
+  </si>
+  <si>
+    <t>anusheelsoni4@gmail.com</t>
+  </si>
+  <si>
+    <t>Anusheel Soni</t>
+  </si>
+  <si>
+    <t>CSE in Gaming Technology</t>
+  </si>
+  <si>
+    <t>anchal7375@gmail.com</t>
+  </si>
+  <si>
+    <t>Anchal kumar</t>
+  </si>
+  <si>
+    <t>Cse specialization in AIML</t>
+  </si>
+  <si>
+    <t>Barabanki</t>
+  </si>
+  <si>
+    <t>adisamarth20@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Indore</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>aditya30joshi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nainital </t>
+  </si>
+  <si>
+    <t>aryansharma20047@gmail.com</t>
+  </si>
+  <si>
+    <t>Aryan Sharma</t>
+  </si>
+  <si>
+    <t>singhashayan034@gmail.com</t>
+  </si>
+  <si>
+    <t>Shayan Singha</t>
+  </si>
+  <si>
+    <t>Guwahati</t>
+  </si>
+  <si>
+    <t>A201</t>
+  </si>
+  <si>
+    <t>yatharthnagpal2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Yatharth Nagpal</t>
+  </si>
+  <si>
+    <t>Behror</t>
+  </si>
+  <si>
+    <t>ishantgupta1535@gmail.com</t>
+  </si>
+  <si>
+    <t>Ishant</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>shivmandhani17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiv </t>
+  </si>
+  <si>
+    <t>tanaysemwal@gmail.com</t>
+  </si>
+  <si>
+    <t>Tanay Semwal</t>
+  </si>
+  <si>
+    <t>Vadodara, Gujarat</t>
+  </si>
+  <si>
+    <t>dasguptasarthak76@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarthak Dasgupta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navi mumbai </t>
+  </si>
+  <si>
+    <t>fatehbhullar10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fateh Inder Singh </t>
+  </si>
+  <si>
+    <t>Nabha</t>
+  </si>
+  <si>
+    <t>B305</t>
+  </si>
+  <si>
+    <t>B608</t>
+  </si>
+  <si>
+    <t>B404</t>
+  </si>
+  <si>
+    <t>B707</t>
   </si>
 </sst>
 </file>
@@ -137,7 +1598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -147,13 +1608,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -175,19 +1629,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,11 +1855,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -447,39 +1898,36 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44858.958588831018</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>44860.237448796295</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
-        <v>202</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44859.901276018514</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>44860.251858125004</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>15</v>
@@ -491,160 +1939,3429 @@
         <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3">
-        <v>202</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44859.910772719908</v>
+        <v>44860.271856145831</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
       </c>
       <c r="H4" s="3">
-        <v>202</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44859.915721608792</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>44860.272418113425</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
-        <v>202</v>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44860.062711076389</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>44860.275588113422</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
-        <v>303</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44860.13319158565</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>44860.304422291665</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="3">
-        <v>452</v>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44860.133781539349</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>44860.309602152774</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44860.310631574073</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="3">
         <v>2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H9" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44860.313159155092</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44860.31318788194</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44860.313965289351</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44860.314549155097</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44860.315046250005</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44860.324356122685</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44860.338217395838</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44860.341238553243</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44860.348262650463</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44860.352543159723</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44860.353013854168</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44860.353021238421</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44860.353691655095</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44860.35499349537</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44860.357098993059</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44860.35876210648</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44860.360289155091</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44860.362464814811</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44860.364246331017</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44860.365330625005</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44860.376844421291</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44860.377950555558</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44860.379836435182</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="3">
+        <v>2</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44860.381613263889</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44860.385287627316</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44860.389497951386</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>44860.397278807868</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>44860.3997465625</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>44860.408664062503</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="3">
+        <v>2</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>44860.412506747685</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>44860.415727280095</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>44860.415789444443</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44860.418367673614</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>44860.423598738431</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>44860.425359884262</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44860.425886331017</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="3">
+        <v>2</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>44860.427974733801</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>44860.427981099536</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>44860.431582291669</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>44860.434028807867</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>44860.434148587963</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>44860.434579884255</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>44860.435659421295</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>44860.440576053239</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>44860.443503148148</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>44860.445529907403</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>44860.446032962966</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>44860.448244444444</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>44860.450335393514</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>44860.450661469906</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="3">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>44860.453154131945</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>44860.453735590279</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>44860.453880381945</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="3">
+        <v>2</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>44860.456260659717</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="3">
+        <v>2</v>
+      </c>
+      <c r="H63" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>44860.456800416665</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="3">
+        <v>2</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>44860.457346284718</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>44860.45746863426</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>44860.459761087965</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="3">
+        <v>2</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>44860.461520289347</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>44860.462066435182</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>44860.462168715283</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>44860.462455300927</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>44860.462601087958</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>44860.462688981483</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>44860.463837499999</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>44860.465731956021</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>44860.466664340274</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>44860.46876369213</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>44860.470029999997</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>44860.471008275461</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="3">
+        <v>3</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>44860.47118403935</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="3">
+        <v>3</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>44860.472522881944</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>44860.472618425927</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="3">
+        <v>3</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>44860.47298416667</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>44860.477038287034</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="3">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>44860.47758579861</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>44860.478483750005</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>44860.481368576387</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>44860.482705023147</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>44860.487416793985</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" s="3">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>44860.489647361115</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>44860.493379363426</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>44860.502659131947</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>44860.511499259257</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>44860.511682557873</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="3">
+        <v>2</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>44860.511794999999</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>44860.511804386573</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" s="3">
+        <v>2</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>44860.511870636576</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G97" s="3">
+        <v>2</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>44860.512092488425</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>44860.514880370371</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="3">
+        <v>2</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>44860.516047534722</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>44860.518226504631</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="3">
+        <v>2</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>44860.519400150464</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G102" s="3">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>44860.523632916666</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>44860.524539918981</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G104" s="3">
+        <v>3</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>44860.528623124999</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" s="3">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>44860.561186250001</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G106" s="3">
+        <v>2</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>44860.563136145836</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" s="3">
+        <v>1</v>
+      </c>
+      <c r="H107" s="3">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>44860.574010543976</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>44860.577746388888</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>44860.58056725694</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G110" s="3">
+        <v>3</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>44860.586830277782</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="3">
+        <v>3</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>44860.595678912039</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>44860.60418274306</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" s="3">
+        <v>3</v>
+      </c>
+      <c r="H113" s="3" t="s">
         <v>452</v>
       </c>
     </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>44860.622656319443</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" s="3">
+        <v>3</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>44860.63275167824</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" s="3">
+        <v>3</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>44860.650180115743</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="3">
+        <v>2</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>44860.678428900464</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+      <c r="H117" s="3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>44860.701239849535</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" s="3">
+        <v>2</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="2">
+        <v>44860.724527025464</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119" s="3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>44860.731319409722</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G120" s="3">
+        <v>3</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>44860.734719467597</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121" s="3">
+        <v>3</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="2">
+        <v>44860.739310844903</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="3">
+        <v>3</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="2">
+        <v>44860.751706574076</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G123" s="3">
+        <v>2</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="2">
+        <v>44860.751753113422</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="3">
+        <v>1</v>
+      </c>
+      <c r="H124" s="3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="2">
+        <v>44860.771667233799</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" s="3">
+        <v>3</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
+        <v>44860.772187581024</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" s="3">
+        <v>1</v>
+      </c>
+      <c r="H126" s="3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="2">
+        <v>44860.773380833329</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" s="3">
+        <v>3</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>44860.773676898149</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="3">
+        <v>2</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="2">
+        <v>44860.773714710653</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="2">
+        <v>44860.774630347223</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="3">
+        <v>5</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>44860.778615324074</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="2">
+        <v>44860.796799293981</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+      <c r="H132" s="3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="2">
+        <v>44860.804413414357</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" s="3">
+        <v>2</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="2">
+        <v>44860.808510740739</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G134" s="3">
+        <v>2</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{4D0A1B75-9E31-4F28-9ACB-FC17CB4EE31A}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{D09B4EB2-24BB-44C8-9D46-DE1CCA595FBE}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{F9AAAE9C-F6AA-4E4D-B35D-047BF7383622}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{311F4EEB-BBCF-4F75-8098-1485191BBEE9}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{A6D76BD6-6AF0-430E-B32D-0D3BBDAF88D8}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{177318D8-E89B-4B7C-9D0F-52B70A6451BB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hostel Allocation Grouping (Responses).xlsx
+++ b/Hostel Allocation Grouping (Responses).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bikra\Desktop\Programming projects\Python\Google Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517F76AF-DC46-4874-A9E5-2881BBB7EE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDDF1B5-1B8A-41B8-8AA2-E2181BA3DB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="819">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1390,9 +1390,6 @@
     <t>Cse with specalization (Ai ml)</t>
   </si>
   <si>
-    <t>B/309</t>
-  </si>
-  <si>
     <t>akshit.v@outlook.com</t>
   </si>
   <si>
@@ -1414,6 +1411,9 @@
     <t>KANPUR</t>
   </si>
   <si>
+    <t>B 404</t>
+  </si>
+  <si>
     <t>dineshtyagi567@gmail.com</t>
   </si>
   <si>
@@ -1579,16 +1579,904 @@
     <t>Nabha</t>
   </si>
   <si>
+    <t>nayanjain24003@gmail.com</t>
+  </si>
+  <si>
+    <t>Nayan jain</t>
+  </si>
+  <si>
+    <t>B411</t>
+  </si>
+  <si>
+    <t>kartavyachaudhary2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Kartavya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse(HI) </t>
+  </si>
+  <si>
+    <t>Meerut</t>
+  </si>
+  <si>
+    <t>rishavromyraj0730@gmail.com</t>
+  </si>
+  <si>
+    <t>Rishav Raj</t>
+  </si>
+  <si>
+    <t>Int CSE(spec in comp and data science)</t>
+  </si>
+  <si>
+    <t>Bhagalpur</t>
+  </si>
+  <si>
+    <t>kshitijdalvi22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kshitij Dalvi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial intelligence and Machine learning </t>
+  </si>
+  <si>
+    <t>abhinavdixit978@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav Dixit </t>
+  </si>
+  <si>
+    <t>A711</t>
+  </si>
+  <si>
+    <t>swayamm9shra@gmail.com</t>
+  </si>
+  <si>
+    <t>Swayam Mishra</t>
+  </si>
+  <si>
+    <t>B601</t>
+  </si>
+  <si>
+    <t>aaditsingal7859@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadit Singal </t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faridabad </t>
+  </si>
+  <si>
+    <t>B111</t>
+  </si>
+  <si>
+    <t>samaksh.jain13@gmail.com</t>
+  </si>
+  <si>
+    <t>Samaksh Jain</t>
+  </si>
+  <si>
+    <t>Computer Science with AI and ML</t>
+  </si>
+  <si>
+    <t>akshatkumar554@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshat Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghaziabad </t>
+  </si>
+  <si>
+    <t>abhishekverma260303@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek </t>
+  </si>
+  <si>
+    <t>CSE - AIML</t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>krishnaspattel@gmail.com</t>
+  </si>
+  <si>
+    <t>krishna Patel</t>
+  </si>
+  <si>
+    <t>CSE E-Commerce TECH.</t>
+  </si>
+  <si>
+    <t>SURAT</t>
+  </si>
+  <si>
+    <t>vigramsujey@gmail.com</t>
+  </si>
+  <si>
+    <t>SUJEY VIGRAM</t>
+  </si>
+  <si>
+    <t>Namakkal, Tamil Nadu</t>
+  </si>
+  <si>
+    <t>udsingh11032003@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udbhav Singh Tomar </t>
+  </si>
+  <si>
+    <t>Integrated Mtech AI</t>
+  </si>
+  <si>
+    <t>6 Bed Non AC</t>
+  </si>
+  <si>
+    <t>theonemanaryan@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Singh </t>
+  </si>
+  <si>
+    <t>Motihari, bihar</t>
+  </si>
+  <si>
+    <t>A511</t>
+  </si>
+  <si>
+    <t>adamyagupta.2011@gmail.com</t>
+  </si>
+  <si>
+    <t>Adamya Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varanasi </t>
+  </si>
+  <si>
+    <t>A210</t>
+  </si>
+  <si>
+    <t>srirajpillai2104@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sriraj Pillai </t>
+  </si>
+  <si>
+    <t>CSE with AI ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Delhi </t>
+  </si>
+  <si>
+    <t>ajhasbeensummoned@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya Jain</t>
+  </si>
+  <si>
+    <t>Indore/Askn</t>
+  </si>
+  <si>
+    <t>ankit0raj001@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankit Raj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE AI AND ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vadodara Gujarat </t>
+  </si>
+  <si>
+    <t>B604</t>
+  </si>
+  <si>
+    <t>manavalokacharya2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manav Acharya </t>
+  </si>
+  <si>
+    <t>Jamnagar</t>
+  </si>
+  <si>
+    <t>arihant.bhandari.2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Arihant Bhandari</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
+    <t>kulshresthautkarsh2004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utkarsh kulshrestha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agra </t>
+  </si>
+  <si>
+    <t>A105</t>
+  </si>
+  <si>
+    <t>kshivam19950@gmail.com</t>
+  </si>
+  <si>
+    <t>Shivam Kumar Kashyap</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>ayushroy2476@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush Roy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int mtech with specialization in data science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manendragrah, Chhattisgarh </t>
+  </si>
+  <si>
+    <t>ekanshbatra2022@gmail.com</t>
+  </si>
+  <si>
+    <t>Ekansh Batra</t>
+  </si>
+  <si>
+    <t>CSE with spec. in Bioinformatics</t>
+  </si>
+  <si>
+    <t>Ajmer</t>
+  </si>
+  <si>
+    <t>kushalzanzari@gmail.com</t>
+  </si>
+  <si>
+    <t>Kushal zanzari</t>
+  </si>
+  <si>
+    <t>CSE Integrated Mtech AI</t>
+  </si>
+  <si>
+    <t>adityapa37@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditya Patil</t>
+  </si>
+  <si>
+    <t>Cse-cyber</t>
+  </si>
+  <si>
+    <t>Bidar</t>
+  </si>
+  <si>
+    <t>jaiditya7318@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaiditya Batra</t>
+  </si>
+  <si>
+    <t>Cloud computing</t>
+  </si>
+  <si>
+    <t>KARNAL</t>
+  </si>
+  <si>
+    <t>2 Bed AC</t>
+  </si>
+  <si>
+    <t>raj2003deb8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Krish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE with Spls in Cloud computing and automation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bokaro Steel City </t>
+  </si>
+  <si>
+    <t>devamsonigra@gmail.com</t>
+  </si>
+  <si>
+    <t>Devam</t>
+  </si>
+  <si>
+    <t>cse core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gujarat </t>
+  </si>
+  <si>
+    <t>bhavinpatel242846@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavin Patel </t>
+  </si>
+  <si>
+    <t>mr.advait.sharma@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advait Sharma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohtak haryana </t>
+  </si>
+  <si>
+    <t>ankitdas3758@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankit Ranjan Das </t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamshedpur </t>
+  </si>
+  <si>
+    <t>arihaan2022@gmail.com</t>
+  </si>
+  <si>
+    <t>Arihaan</t>
+  </si>
+  <si>
+    <t>Cse gaming</t>
+  </si>
+  <si>
+    <t>Pathankot</t>
+  </si>
+  <si>
+    <t>arminpatel102004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armin Patel </t>
+  </si>
+  <si>
+    <t>Gujarat (Palanpur)</t>
+  </si>
+  <si>
+    <t>A308</t>
+  </si>
+  <si>
+    <t>subhajit.c2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Subhajit Chakarborty</t>
+  </si>
+  <si>
+    <t>viralvaghela7904@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viral Vaghela </t>
+  </si>
+  <si>
+    <t>vivekalthi@gmail.com</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Visakhapatnam</t>
+  </si>
+  <si>
+    <t>prakharpandey2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prakhar Pandey </t>
+  </si>
+  <si>
+    <t>Jaunpur</t>
+  </si>
+  <si>
+    <t>harshsinghm34@gmail.com</t>
+  </si>
+  <si>
+    <t>Namandip Raj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bihar (But stay in Nagpur ) </t>
+  </si>
+  <si>
+    <t>siddharthmohril2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Siddharth Mohril</t>
+  </si>
+  <si>
+    <t>Raipur (Chhattisgarh)</t>
+  </si>
+  <si>
+    <t>B540</t>
+  </si>
+  <si>
+    <t>sanketpawarpatil466@gmsil.com</t>
+  </si>
+  <si>
+    <t>Sanket Pawar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra ( aurangabad) </t>
+  </si>
+  <si>
+    <t>abhinavchaudhary1103@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhinav</t>
+  </si>
+  <si>
+    <t>A211</t>
+  </si>
+  <si>
+    <t>harshitchimaniya23@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshit Chimaniya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Int m.tech CSE specialization in cyber security </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoshangabad </t>
+  </si>
+  <si>
+    <t>somilagrawal2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Somil Agrawal</t>
+  </si>
+  <si>
+    <t>kandarpnandasana2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Kandarp Nandasana</t>
+  </si>
+  <si>
+    <t>Computer science and engineering core</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
+  </si>
+  <si>
+    <t>namanjain2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Naman jain</t>
+  </si>
+  <si>
+    <t>Cse(cloud computing and automation)</t>
+  </si>
+  <si>
+    <t>A712</t>
+  </si>
+  <si>
+    <t>shyam.raval2005@gmail.com</t>
+  </si>
+  <si>
+    <t>Shyam</t>
+  </si>
+  <si>
+    <t>A104</t>
+  </si>
+  <si>
+    <t>jaiswalanish552@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anish Kumar Jaiswal </t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>kansagaramanan2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manan Kansagara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porbandar, Gujarat </t>
+  </si>
+  <si>
+    <t>atharvpatil2003@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATHARV PATIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cse with gaming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karad , Maharashtra </t>
+  </si>
+  <si>
+    <t>A503</t>
+  </si>
+  <si>
+    <t>jainharsh2929@gmail.com</t>
+  </si>
+  <si>
+    <t>Harsh jain</t>
+  </si>
+  <si>
+    <t>Cse with specialization in Edtech</t>
+  </si>
+  <si>
+    <t>G-10</t>
+  </si>
+  <si>
+    <t>gyanamjain2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Gyanam Jain</t>
+  </si>
+  <si>
+    <t>Ujjain</t>
+  </si>
+  <si>
+    <t>50siddharthjha@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siddharth Jha </t>
+  </si>
+  <si>
+    <t>vedansh.cbsei@gmail.com</t>
+  </si>
+  <si>
+    <t>Vedansh Kapoor</t>
+  </si>
+  <si>
+    <t>sarthakgoel8888@gmail.com</t>
+  </si>
+  <si>
+    <t>Sarthak Goel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerospace </t>
+  </si>
+  <si>
+    <t>A604</t>
+  </si>
+  <si>
+    <t>dm393312@gmail.com</t>
+  </si>
+  <si>
+    <t>Danish Mahajan</t>
+  </si>
+  <si>
+    <t>CSE (E-commerce)</t>
+  </si>
+  <si>
+    <t>Batala</t>
+  </si>
+  <si>
+    <t>birole.pratyush@gmail.com</t>
+  </si>
+  <si>
+    <t>Pratyush Birole</t>
+  </si>
+  <si>
+    <t>Health Info</t>
+  </si>
+  <si>
+    <t>akshay.syam04@gmail.com</t>
+  </si>
+  <si>
+    <t>AKSHAY SYAM</t>
+  </si>
+  <si>
+    <t>CSE Cybersecurity and Digital Forensics</t>
+  </si>
+  <si>
+    <t>Thrissur, Kerala</t>
+  </si>
+  <si>
+    <t>kaustubh0078@gmail.com</t>
+  </si>
+  <si>
+    <t>Kaustubh Jaiswal</t>
+  </si>
+  <si>
+    <t>Cse corw</t>
+  </si>
+  <si>
+    <t>shivam200446@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivam Sharma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyber Security </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motihari, Bihar </t>
+  </si>
+  <si>
+    <t>anvitpusalkar2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Anvit Pusalkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune, Maharashtra </t>
+  </si>
+  <si>
+    <t>me.atanwar007@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aditya Tanwar </t>
+  </si>
+  <si>
+    <t>tusharjagatap99@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tushar Jagatap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Mtech AI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalgaon </t>
+  </si>
+  <si>
+    <t>suarezandhulk@gmail.com</t>
+  </si>
+  <si>
+    <t>Aniruddha Shil</t>
+  </si>
+  <si>
+    <t>AI &amp; ML</t>
+  </si>
+  <si>
+    <t>Agartala</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>prathameshmangeshchoudhari@vitbhopal.in.ac</t>
+  </si>
+  <si>
+    <t>Prathamesh choudhari</t>
+  </si>
+  <si>
+    <t>arnavtembhekar2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t>Arnav Tembhekar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical with AI and robotics </t>
+  </si>
+  <si>
+    <t>NAGPUR</t>
+  </si>
+  <si>
+    <t>shaunakphatak09@gmail.com</t>
+  </si>
+  <si>
+    <t>Shaunak Phatak</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>B304</t>
+  </si>
+  <si>
+    <t>sudhanshutiwary89@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudhanshu Tiwary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE In ecommerce </t>
+  </si>
+  <si>
+    <t>vairagakbari101@gmail.com</t>
+  </si>
+  <si>
+    <t>VAIRAG KAMLESHBHAI AKBARI</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>navyanshr@gmail.com</t>
+  </si>
+  <si>
+    <t>Navyansh raj</t>
+  </si>
+  <si>
+    <t>jitsurani2110@gmail.com</t>
+  </si>
+  <si>
+    <t>Jit Surani</t>
+  </si>
+  <si>
+    <t>Cse - core</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
+  </si>
+  <si>
+    <t>shuklaarchit09@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archit Shukla </t>
+  </si>
+  <si>
+    <t>dhruvchoksi099@gmail.com</t>
+  </si>
+  <si>
+    <t>dhruv choksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE GAMING </t>
+  </si>
+  <si>
+    <t>surat</t>
+  </si>
+  <si>
+    <t>karandivyansh01@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divyansh karan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazaribagh </t>
+  </si>
+  <si>
+    <t>A708</t>
+  </si>
+  <si>
+    <t>yogendrasinghrathod2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogendra Singh rathod </t>
+  </si>
+  <si>
+    <t>tejasdevdot19@gmail.com</t>
+  </si>
+  <si>
+    <t>Tejas Dev Lakhanpal</t>
+  </si>
+  <si>
+    <t>B108</t>
+  </si>
+  <si>
+    <t>divkarsaireddi@gmail.com</t>
+  </si>
+  <si>
+    <t>REDDI DIVAKARSAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Mtech (AI) </t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>karangandha504@gmail.com</t>
+  </si>
+  <si>
+    <t>Karan gandha</t>
+  </si>
+  <si>
+    <t>ECE Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajkot </t>
+  </si>
+  <si>
+    <t>B102</t>
+  </si>
+  <si>
+    <t>kaustubh.bhatlawande19@gmail.com</t>
+  </si>
+  <si>
+    <t>Kaustubh Bhatlawande</t>
+  </si>
+  <si>
+    <t>aineshsridhar@gmail.com</t>
+  </si>
+  <si>
+    <t>Ainesh Sridhar</t>
+  </si>
+  <si>
+    <t>theashishrawat360@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashish Rawat</t>
+  </si>
+  <si>
+    <t>ayushgupta2022@vitbhopal.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayush </t>
+  </si>
+  <si>
+    <t>Jhansi</t>
+  </si>
+  <si>
+    <t>anaswar999@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaswar </t>
+  </si>
+  <si>
+    <t>CS Core</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>arpanghosh781@gmail.com</t>
+  </si>
+  <si>
+    <t>Arpan Ghosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaming </t>
+  </si>
+  <si>
+    <t>Dimapur, Nagaland</t>
+  </si>
+  <si>
+    <t>B205</t>
+  </si>
+  <si>
+    <t>shubhraawasthi750@gmail.com</t>
+  </si>
+  <si>
+    <t>Shubhra Awasthi</t>
+  </si>
+  <si>
+    <t>RAJKOT</t>
+  </si>
+  <si>
+    <t>A406</t>
+  </si>
+  <si>
+    <t>soumyo2004@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soumyodeep Nayak </t>
+  </si>
+  <si>
     <t>B305</t>
   </si>
   <si>
     <t>B608</t>
   </si>
   <si>
-    <t>B404</t>
+    <t>B309</t>
   </si>
   <si>
     <t>B707</t>
+  </si>
+  <si>
+    <t>A106</t>
+  </si>
+  <si>
+    <t>G-9</t>
   </si>
 </sst>
 </file>
@@ -1855,11 +2743,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G171" sqref="G171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2387,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>519</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4389,7 +5277,7 @@
         <v>2</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>520</v>
+        <v>814</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4831,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>456</v>
+        <v>815</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4839,13 +5727,13 @@
         <v>44860.63275167824</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>92</v>
@@ -4857,7 +5745,7 @@
         <v>3</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4865,16 +5753,16 @@
         <v>44860.650180115743</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>223</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>37</v>
@@ -4883,7 +5771,7 @@
         <v>2</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>521</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -5013,7 +5901,7 @@
         <v>3</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>522</v>
+        <v>816</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5354,13 +6242,2249 @@
         <v>389</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>44860.826982430561</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" s="3">
+        <v>3</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="2">
+        <v>44860.835682465273</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="3">
+        <v>3</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="2">
+        <v>44860.836122337962</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+      <c r="H137" s="3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="2">
+        <v>44860.842990659723</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1</v>
+      </c>
+      <c r="H138" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="2">
+        <v>44860.846088113423</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" s="3">
+        <v>3</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="2">
+        <v>44860.849404594905</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="3">
+        <v>3</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>44860.878204409717</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G141" s="3">
+        <v>2</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="2">
+        <v>44860.889400601853</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G142" s="3">
+        <v>1</v>
+      </c>
+      <c r="H142" s="3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="2">
+        <v>44860.898067824077</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G143" s="3">
+        <v>1</v>
+      </c>
+      <c r="H143" s="3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="2">
+        <v>44860.899519398146</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
+        <v>44860.900053113422</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="2">
+        <v>44860.900170208333</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" s="3">
+        <v>1</v>
+      </c>
+      <c r="H146" s="3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="2">
+        <v>44860.909119641205</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G147" s="3">
+        <v>1</v>
+      </c>
+      <c r="H147" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>44860.926315972218</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" s="3">
+        <v>3</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>44860.927116620369</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G149" s="3">
+        <v>2</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>44860.927655520834</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G150" s="3">
+        <v>1</v>
+      </c>
+      <c r="H150" s="3">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>44860.928911493058</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" s="3">
+        <v>3</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>44860.929423680558</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="3">
+        <v>3</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>44860.929928206024</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" s="3">
+        <v>1</v>
+      </c>
+      <c r="H153" s="3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>44860.930504386575</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="3">
+        <v>3</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>44860.930782280091</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G155" s="3">
+        <v>2</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>44860.93153238426</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="3">
+        <v>3</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>44860.931821215279</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" s="3">
+        <v>1</v>
+      </c>
+      <c r="H157" s="3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>44860.932134467592</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
+      <c r="H158" s="3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>44860.932944201384</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="3">
+        <v>1</v>
+      </c>
+      <c r="H159" s="3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>44860.933902627316</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G160" s="3">
+        <v>1</v>
+      </c>
+      <c r="H160" s="3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>44860.934118877311</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>44860.934936053236</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+      <c r="H162" s="3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="2">
+        <v>44860.935617696756</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163" s="3">
+        <v>3</v>
+      </c>
+      <c r="H163" s="3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="2">
+        <v>44860.935694502317</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+      <c r="H164" s="3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>44860.935750428238</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+      <c r="H165" s="3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="2">
+        <v>44860.935950740743</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G166" s="3">
+        <v>2</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="2">
+        <v>44860.93614380787</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G167" s="3">
+        <v>1</v>
+      </c>
+      <c r="H167" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="2">
+        <v>44860.937408136575</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G168" s="3">
+        <v>2</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="2">
+        <v>44860.938405925925</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="3">
+        <v>1</v>
+      </c>
+      <c r="H169" s="3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="2">
+        <v>44860.940814004629</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G170" s="3">
+        <v>2</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="2">
+        <v>44860.94188864583</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G171" s="3">
+        <v>1</v>
+      </c>
+      <c r="H171" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="2">
+        <v>44860.942212534719</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G172" s="3">
+        <v>2</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="2">
+        <v>44860.943180451388</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" s="3">
+        <v>3</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="2">
+        <v>44860.943280844906</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G174" s="3">
+        <v>2</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="2">
+        <v>44860.943825023147</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" s="3">
+        <v>1</v>
+      </c>
+      <c r="H175" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="2">
+        <v>44860.944733703705</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G176" s="3">
+        <v>3</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="2">
+        <v>44860.945242118054</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="2">
+        <v>44860.946202870371</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="2">
+        <v>44860.947270856486</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+      <c r="H179" s="3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="2">
+        <v>44860.951181770834</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G180" s="3">
+        <v>3</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="2">
+        <v>44860.952772800927</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G181" s="3">
+        <v>2</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="2">
+        <v>44860.953222268523</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="3">
+        <v>2</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="2">
+        <v>44860.956835000005</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="3">
+        <v>3</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="2">
+        <v>44860.957141724539</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" s="3">
+        <v>2</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="2">
+        <v>44860.958092939814</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="3">
+        <v>1</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="2">
+        <v>44860.959639664346</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G186" s="3">
+        <v>1</v>
+      </c>
+      <c r="H186" s="3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="2">
+        <v>44860.963230960653</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G187" s="3">
+        <v>2</v>
+      </c>
+      <c r="H187" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="2">
+        <v>44860.966196030087</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G188" s="3">
+        <v>3</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="2">
+        <v>44860.96699291667</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="3">
+        <v>3</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="2">
+        <v>44860.967392199076</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1</v>
+      </c>
+      <c r="H190" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="2">
+        <v>44860.968960081023</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G191" s="3">
+        <v>1</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="2">
+        <v>44860.970414849537</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G192" s="3">
+        <v>1</v>
+      </c>
+      <c r="H192" s="3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="2">
+        <v>44860.971512268516</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G193" s="3">
+        <v>1</v>
+      </c>
+      <c r="H193" s="3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="2">
+        <v>44860.975487881944</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="3">
+        <v>3</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="2">
+        <v>44860.97618489583</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" s="3">
+        <v>1</v>
+      </c>
+      <c r="H195" s="3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="2">
+        <v>44860.976562662036</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="3">
+        <v>1</v>
+      </c>
+      <c r="H196" s="3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="2">
+        <v>44860.992748935183</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="3">
+        <v>1</v>
+      </c>
+      <c r="H197" s="3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="2">
+        <v>44861.000783831019</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G198" s="3">
+        <v>3</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="2">
+        <v>44861.001630358791</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" s="3">
+        <v>1</v>
+      </c>
+      <c r="H199" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="2">
+        <v>44861.001659664355</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="3">
+        <v>1</v>
+      </c>
+      <c r="H200" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>44861.011234039353</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G201" s="3">
+        <v>2</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>44861.041228472226</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G202" s="3">
+        <v>1</v>
+      </c>
+      <c r="H202" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>44861.044988310183</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="3">
+        <v>2</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>44861.049080671291</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+      <c r="H204" s="3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>44861.285799224541</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G205" s="3">
+        <v>1</v>
+      </c>
+      <c r="H205" s="3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>44861.287542615741</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" s="3">
+        <v>1</v>
+      </c>
+      <c r="H206" s="3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>44861.289129004625</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G207" s="3">
+        <v>2</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>44861.310419421294</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G208" s="3">
+        <v>3</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>44861.310836111108</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G209" s="3">
+        <v>1</v>
+      </c>
+      <c r="H209" s="3">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>44861.340891712964</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G210" s="3">
+        <v>2</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>44861.355322650459</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1</v>
+      </c>
+      <c r="H211" s="3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>44861.393462233798</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="3">
+        <v>3</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>44861.423982002314</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H213" s="3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>44861.42867601852</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1</v>
+      </c>
+      <c r="H214" s="3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>44861.453222604163</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1</v>
+      </c>
+      <c r="H215" s="3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>44861.487205833335</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" s="3">
+        <v>3</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>44861.579584768522</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" s="3">
+        <v>1</v>
+      </c>
+      <c r="H217" s="3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>44861.583736458335</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" s="3">
+        <v>3</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>44861.651529918978</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G219" s="3">
+        <v>3</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>44861.810045231483</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G220" s="3">
+        <v>2</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
